--- a/OvenTests/60DutyCycleAndCooldown.xlsx
+++ b/OvenTests/60DutyCycleAndCooldown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlols\OneDrive\Desktop\Schoolwork\9. Small Sat Research Lab\SSRLReflowOven\OvenTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B585D38-999B-4A50-B555-C97F0D851EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A24DC3-8070-4B4B-9D0C-033C4CF7F263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{62DE8657-72C5-400B-8FC0-F5E028D8F4BA}"/>
   </bookViews>
@@ -34,12 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>Time</t>
   </si>
   <si>
     <t>Temperature (C)</t>
+  </si>
+  <si>
+    <t>Max slope range</t>
   </si>
 </sst>
 </file>
@@ -25863,6 +25866,1269 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.49938889076633663"/>
+                  <c:y val="-0.13852216748768473"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$24:$D$199</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="176"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>69.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>71.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>72.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>72.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>73.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>73.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>74.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>74.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>75.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>75.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>76.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>76.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>77.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>77.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>78.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>78.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>79.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>79.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>80.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>80.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>81.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>81.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>82.01</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>82.51</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>83.01</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>83.51</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>84.01</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>84.51</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>85.01</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>85.51</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>86.01</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>86.51</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>87.01</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>87.51</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>88.01</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>88.51</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>89.01</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>89.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>90.01</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>90.51</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>91.01</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>91.51</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>92.01</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>92.51</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>93.01</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>93.51</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>94.01</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>94.51</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>95.01</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>95.51</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>96.01</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>96.51</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>97.01</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>97.51</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>98.01</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>98.51</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>99.01</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>99.51</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>100.01</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>100.51</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>101.01</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>101.51</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>102.01</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>102.51</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>103.01</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>103.51</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>104.01</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>104.51</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>105.01</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>105.51</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>106.01</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>106.51</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>107.01</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>107.51</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>108.01</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>108.51</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>109.01</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>109.51</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>110.01</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>110.51</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>111.01</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>111.51</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>112.01</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>112.51</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>113.01</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>113.51</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>114.01</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>114.51</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>115.01</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>115.51</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>116.01</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>116.51</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>117.01</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>117.51</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>118.01</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>118.51</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>119.01</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>119.51</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>120.01</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>120.51</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>121.01</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>121.51</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>122.01</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>122.51</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>123.01</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>123.51</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>124.01</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>124.51</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>125.01</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>125.51</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>126.01</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126.51</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127.01</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127.51</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128.01</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>128.51</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>129.01</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>129.51</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>130.01</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>130.51</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>131.01</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>131.51</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>132.01</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>132.51</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>133.01</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>133.51</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>134.01</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>134.51</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>135.01</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>135.51</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>136.01</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>136.51</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>137.01</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>137.51</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>138.01</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>138.51</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>139.01</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>139.51</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>140.01</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>140.51</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>141.01</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>141.51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$24:$E$199</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="176"/>
+                <c:pt idx="0">
+                  <c:v>51.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>61.75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>65.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>66.25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>66.75</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>67.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>67.75</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>68.25</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>69.25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>69.75</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>70.25</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>70.75</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>71.25</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>71.75</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>72.25</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>72.75</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>73.25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>73.75</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>74.25</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>74.75</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>75.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>76.75</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>77.25</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>77.75</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>78.25</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>78.75</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>79.25</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>79.75</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>80.25</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>80.75</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>81.75</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>82.25</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>82.75</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>83.25</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>83.75</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>84.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>85.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>86.25</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>87.25</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>87.75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>88.25</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>88.75</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>89.25</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>89.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>90.75</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>91.25</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>91.75</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>93.5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>93.75</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>94.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>95.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>95.75</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>96.25</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>96.75</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>97.75</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99.25</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99.75</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>100.75</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>101.25</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>101.5</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>102.25</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>102.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>103.5</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>104.5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>105.5</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>105.75</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>106.25</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>106.75</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>107.75</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>108.25</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>108.5</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>109.25</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>109.75</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>110.25</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>110.75</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>111.25</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>111.75</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>112.5</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>113.5</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>114.5</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>114.75</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>115.5</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>116.5</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>117.25</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>117.75</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>118.75</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>119.25</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>119.75</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>120.25</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>120.75</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>121.5</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>121.75</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>122.25</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>122.75</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>123.25</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>123.5</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>124.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-63DA-453C-ACF3-DDCCD8A7E1A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1166098559"/>
+        <c:axId val="1166098975"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1166098559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1166098975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1166098975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1166098559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -25904,6 +27170,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -26975,6 +28281,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -27044,6 +28866,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>112395</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>626745</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ED62E63-73C2-4F68-9EF1-B407BC024E76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -27351,7 +29209,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B046CA42-DB63-4F6C-A6BE-EFC424359019}">
   <dimension ref="A1:M2967"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="E199" sqref="D180:E199"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -27670,6 +29530,9 @@
       <c r="B23">
         <v>23.5</v>
       </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
       <c r="L23">
         <v>11</v>
       </c>
@@ -27684,6 +29547,12 @@
       <c r="B24">
         <v>23.5</v>
       </c>
+      <c r="D24">
+        <v>64</v>
+      </c>
+      <c r="E24">
+        <v>51.25</v>
+      </c>
       <c r="L24">
         <v>11.5</v>
       </c>
@@ -27698,6 +29567,12 @@
       <c r="B25">
         <v>23.5</v>
       </c>
+      <c r="D25">
+        <v>64.5</v>
+      </c>
+      <c r="E25">
+        <v>52</v>
+      </c>
       <c r="L25">
         <v>12</v>
       </c>
@@ -27712,6 +29587,12 @@
       <c r="B26">
         <v>23.5</v>
       </c>
+      <c r="D26">
+        <v>65</v>
+      </c>
+      <c r="E26">
+        <v>52.25</v>
+      </c>
       <c r="L26">
         <v>12.5</v>
       </c>
@@ -27726,6 +29607,12 @@
       <c r="B27">
         <v>23.5</v>
       </c>
+      <c r="D27">
+        <v>65.5</v>
+      </c>
+      <c r="E27">
+        <v>52.75</v>
+      </c>
       <c r="L27">
         <v>13</v>
       </c>
@@ -27740,6 +29627,12 @@
       <c r="B28">
         <v>23.75</v>
       </c>
+      <c r="D28">
+        <v>66.010000000000005</v>
+      </c>
+      <c r="E28">
+        <v>53.25</v>
+      </c>
       <c r="L28">
         <v>13.5</v>
       </c>
@@ -27754,6 +29647,12 @@
       <c r="B29">
         <v>23.5</v>
       </c>
+      <c r="D29">
+        <v>66.510000000000005</v>
+      </c>
+      <c r="E29">
+        <v>53.75</v>
+      </c>
       <c r="L29">
         <v>14</v>
       </c>
@@ -27768,6 +29667,12 @@
       <c r="B30">
         <v>23.5</v>
       </c>
+      <c r="D30">
+        <v>67.010000000000005</v>
+      </c>
+      <c r="E30">
+        <v>54.25</v>
+      </c>
       <c r="L30">
         <v>14.5</v>
       </c>
@@ -27782,6 +29687,12 @@
       <c r="B31">
         <v>23.75</v>
       </c>
+      <c r="D31">
+        <v>67.510000000000005</v>
+      </c>
+      <c r="E31">
+        <v>54.75</v>
+      </c>
       <c r="L31">
         <v>15</v>
       </c>
@@ -27796,6 +29707,12 @@
       <c r="B32">
         <v>23.75</v>
       </c>
+      <c r="D32">
+        <v>68.010000000000005</v>
+      </c>
+      <c r="E32">
+        <v>55.25</v>
+      </c>
       <c r="L32">
         <v>15.5</v>
       </c>
@@ -27810,6 +29727,12 @@
       <c r="B33">
         <v>24</v>
       </c>
+      <c r="D33">
+        <v>68.510000000000005</v>
+      </c>
+      <c r="E33">
+        <v>55.75</v>
+      </c>
       <c r="L33">
         <v>16</v>
       </c>
@@ -27824,6 +29747,12 @@
       <c r="B34">
         <v>24</v>
       </c>
+      <c r="D34">
+        <v>69.010000000000005</v>
+      </c>
+      <c r="E34">
+        <v>56</v>
+      </c>
       <c r="L34">
         <v>16.5</v>
       </c>
@@ -27838,6 +29767,12 @@
       <c r="B35">
         <v>24</v>
       </c>
+      <c r="D35">
+        <v>69.510000000000005</v>
+      </c>
+      <c r="E35">
+        <v>56.5</v>
+      </c>
       <c r="L35">
         <v>17</v>
       </c>
@@ -27852,6 +29787,12 @@
       <c r="B36">
         <v>24.25</v>
       </c>
+      <c r="D36">
+        <v>70.010000000000005</v>
+      </c>
+      <c r="E36">
+        <v>57</v>
+      </c>
       <c r="L36">
         <v>17.5</v>
       </c>
@@ -27866,6 +29807,12 @@
       <c r="B37">
         <v>24.25</v>
       </c>
+      <c r="D37">
+        <v>70.510000000000005</v>
+      </c>
+      <c r="E37">
+        <v>57.5</v>
+      </c>
       <c r="L37">
         <v>18</v>
       </c>
@@ -27880,6 +29827,12 @@
       <c r="B38">
         <v>24.25</v>
       </c>
+      <c r="D38">
+        <v>71.010000000000005</v>
+      </c>
+      <c r="E38">
+        <v>58</v>
+      </c>
       <c r="L38">
         <v>18.5</v>
       </c>
@@ -27894,6 +29847,12 @@
       <c r="B39">
         <v>24.5</v>
       </c>
+      <c r="D39">
+        <v>71.510000000000005</v>
+      </c>
+      <c r="E39">
+        <v>58.75</v>
+      </c>
       <c r="L39">
         <v>19</v>
       </c>
@@ -27908,6 +29867,12 @@
       <c r="B40">
         <v>24.5</v>
       </c>
+      <c r="D40">
+        <v>72.010000000000005</v>
+      </c>
+      <c r="E40">
+        <v>59</v>
+      </c>
       <c r="L40">
         <v>19.5</v>
       </c>
@@ -27922,6 +29887,12 @@
       <c r="B41">
         <v>24.75</v>
       </c>
+      <c r="D41">
+        <v>72.510000000000005</v>
+      </c>
+      <c r="E41">
+        <v>59.5</v>
+      </c>
       <c r="L41">
         <v>20</v>
       </c>
@@ -27936,6 +29907,12 @@
       <c r="B42">
         <v>24.75</v>
       </c>
+      <c r="D42">
+        <v>73.010000000000005</v>
+      </c>
+      <c r="E42">
+        <v>60</v>
+      </c>
       <c r="L42">
         <v>20.5</v>
       </c>
@@ -27950,6 +29927,12 @@
       <c r="B43">
         <v>24.75</v>
       </c>
+      <c r="D43">
+        <v>73.510000000000005</v>
+      </c>
+      <c r="E43">
+        <v>60.5</v>
+      </c>
       <c r="L43">
         <v>21</v>
       </c>
@@ -27964,6 +29947,12 @@
       <c r="B44">
         <v>25</v>
       </c>
+      <c r="D44">
+        <v>74.010000000000005</v>
+      </c>
+      <c r="E44">
+        <v>61</v>
+      </c>
       <c r="L44">
         <v>21.5</v>
       </c>
@@ -27978,6 +29967,12 @@
       <c r="B45">
         <v>25</v>
       </c>
+      <c r="D45">
+        <v>74.510000000000005</v>
+      </c>
+      <c r="E45">
+        <v>61.75</v>
+      </c>
       <c r="L45">
         <v>22</v>
       </c>
@@ -27992,6 +29987,12 @@
       <c r="B46">
         <v>25.25</v>
       </c>
+      <c r="D46">
+        <v>75.010000000000005</v>
+      </c>
+      <c r="E46">
+        <v>62</v>
+      </c>
       <c r="L46">
         <v>22.5</v>
       </c>
@@ -28006,6 +30007,12 @@
       <c r="B47">
         <v>25.25</v>
       </c>
+      <c r="D47">
+        <v>75.510000000000005</v>
+      </c>
+      <c r="E47">
+        <v>62.5</v>
+      </c>
       <c r="L47">
         <v>23</v>
       </c>
@@ -28020,6 +30027,12 @@
       <c r="B48">
         <v>25.5</v>
       </c>
+      <c r="D48">
+        <v>76.010000000000005</v>
+      </c>
+      <c r="E48">
+        <v>63</v>
+      </c>
       <c r="L48">
         <v>23.5</v>
       </c>
@@ -28034,6 +30047,12 @@
       <c r="B49">
         <v>25.5</v>
       </c>
+      <c r="D49">
+        <v>76.510000000000005</v>
+      </c>
+      <c r="E49">
+        <v>63.5</v>
+      </c>
       <c r="L49">
         <v>24</v>
       </c>
@@ -28048,6 +30067,12 @@
       <c r="B50">
         <v>25.5</v>
       </c>
+      <c r="D50">
+        <v>77.010000000000005</v>
+      </c>
+      <c r="E50">
+        <v>64</v>
+      </c>
       <c r="L50">
         <v>24.5</v>
       </c>
@@ -28062,6 +30087,12 @@
       <c r="B51">
         <v>25.75</v>
       </c>
+      <c r="D51">
+        <v>77.510000000000005</v>
+      </c>
+      <c r="E51">
+        <v>64.5</v>
+      </c>
       <c r="L51">
         <v>25</v>
       </c>
@@ -28076,6 +30107,12 @@
       <c r="B52">
         <v>26</v>
       </c>
+      <c r="D52">
+        <v>78.010000000000005</v>
+      </c>
+      <c r="E52">
+        <v>65</v>
+      </c>
       <c r="L52">
         <v>25.5</v>
       </c>
@@ -28090,6 +30127,12 @@
       <c r="B53">
         <v>26.25</v>
       </c>
+      <c r="D53">
+        <v>78.510000000000005</v>
+      </c>
+      <c r="E53">
+        <v>65.25</v>
+      </c>
       <c r="L53">
         <v>26</v>
       </c>
@@ -28104,6 +30147,12 @@
       <c r="B54">
         <v>26.25</v>
       </c>
+      <c r="D54">
+        <v>79.010000000000005</v>
+      </c>
+      <c r="E54">
+        <v>66</v>
+      </c>
       <c r="L54">
         <v>26.5</v>
       </c>
@@ -28118,6 +30167,12 @@
       <c r="B55">
         <v>26.5</v>
       </c>
+      <c r="D55">
+        <v>79.510000000000005</v>
+      </c>
+      <c r="E55">
+        <v>66.25</v>
+      </c>
       <c r="L55">
         <v>27</v>
       </c>
@@ -28132,6 +30187,12 @@
       <c r="B56">
         <v>26.5</v>
       </c>
+      <c r="D56">
+        <v>80.010000000000005</v>
+      </c>
+      <c r="E56">
+        <v>66.75</v>
+      </c>
       <c r="L56">
         <v>27.5</v>
       </c>
@@ -28146,6 +30207,12 @@
       <c r="B57">
         <v>26.75</v>
       </c>
+      <c r="D57">
+        <v>80.510000000000005</v>
+      </c>
+      <c r="E57">
+        <v>67.25</v>
+      </c>
       <c r="L57">
         <v>28</v>
       </c>
@@ -28160,6 +30227,12 @@
       <c r="B58">
         <v>27</v>
       </c>
+      <c r="D58">
+        <v>81.010000000000005</v>
+      </c>
+      <c r="E58">
+        <v>67.75</v>
+      </c>
       <c r="L58">
         <v>28.5</v>
       </c>
@@ -28174,6 +30247,12 @@
       <c r="B59">
         <v>27.25</v>
       </c>
+      <c r="D59">
+        <v>81.510000000000005</v>
+      </c>
+      <c r="E59">
+        <v>68.25</v>
+      </c>
       <c r="L59">
         <v>29</v>
       </c>
@@ -28188,6 +30267,12 @@
       <c r="B60">
         <v>27.25</v>
       </c>
+      <c r="D60">
+        <v>82.01</v>
+      </c>
+      <c r="E60">
+        <v>68.75</v>
+      </c>
       <c r="L60">
         <v>29.5</v>
       </c>
@@ -28202,6 +30287,12 @@
       <c r="B61">
         <v>27.5</v>
       </c>
+      <c r="D61">
+        <v>82.51</v>
+      </c>
+      <c r="E61">
+        <v>69.25</v>
+      </c>
       <c r="L61">
         <v>30</v>
       </c>
@@ -28216,6 +30307,12 @@
       <c r="B62">
         <v>27.75</v>
       </c>
+      <c r="D62">
+        <v>83.01</v>
+      </c>
+      <c r="E62">
+        <v>69.75</v>
+      </c>
       <c r="L62">
         <v>30.5</v>
       </c>
@@ -28230,6 +30327,12 @@
       <c r="B63">
         <v>28</v>
       </c>
+      <c r="D63">
+        <v>83.51</v>
+      </c>
+      <c r="E63">
+        <v>70.25</v>
+      </c>
       <c r="L63">
         <v>31</v>
       </c>
@@ -28244,6 +30347,12 @@
       <c r="B64">
         <v>28.25</v>
       </c>
+      <c r="D64">
+        <v>84.01</v>
+      </c>
+      <c r="E64">
+        <v>70.75</v>
+      </c>
       <c r="L64">
         <v>31.5</v>
       </c>
@@ -28258,6 +30367,12 @@
       <c r="B65">
         <v>28.5</v>
       </c>
+      <c r="D65">
+        <v>84.51</v>
+      </c>
+      <c r="E65">
+        <v>71.25</v>
+      </c>
       <c r="L65">
         <v>32</v>
       </c>
@@ -28272,6 +30387,12 @@
       <c r="B66">
         <v>28.75</v>
       </c>
+      <c r="D66">
+        <v>85.01</v>
+      </c>
+      <c r="E66">
+        <v>71.75</v>
+      </c>
       <c r="L66">
         <v>32.5</v>
       </c>
@@ -28286,6 +30407,12 @@
       <c r="B67">
         <v>29</v>
       </c>
+      <c r="D67">
+        <v>85.51</v>
+      </c>
+      <c r="E67">
+        <v>72.25</v>
+      </c>
       <c r="L67">
         <v>33</v>
       </c>
@@ -28300,6 +30427,12 @@
       <c r="B68">
         <v>29.25</v>
       </c>
+      <c r="D68">
+        <v>86.01</v>
+      </c>
+      <c r="E68">
+        <v>72.75</v>
+      </c>
       <c r="L68">
         <v>33.5</v>
       </c>
@@ -28314,6 +30447,12 @@
       <c r="B69">
         <v>29.5</v>
       </c>
+      <c r="D69">
+        <v>86.51</v>
+      </c>
+      <c r="E69">
+        <v>73.25</v>
+      </c>
       <c r="L69">
         <v>34</v>
       </c>
@@ -28328,6 +30467,12 @@
       <c r="B70">
         <v>29.75</v>
       </c>
+      <c r="D70">
+        <v>87.01</v>
+      </c>
+      <c r="E70">
+        <v>73.75</v>
+      </c>
       <c r="L70">
         <v>34.5</v>
       </c>
@@ -28342,6 +30487,12 @@
       <c r="B71">
         <v>30</v>
       </c>
+      <c r="D71">
+        <v>87.51</v>
+      </c>
+      <c r="E71">
+        <v>74.25</v>
+      </c>
       <c r="L71">
         <v>35</v>
       </c>
@@ -28356,6 +30507,12 @@
       <c r="B72">
         <v>30.25</v>
       </c>
+      <c r="D72">
+        <v>88.01</v>
+      </c>
+      <c r="E72">
+        <v>74.75</v>
+      </c>
       <c r="L72">
         <v>35.5</v>
       </c>
@@ -28370,6 +30527,12 @@
       <c r="B73">
         <v>30.5</v>
       </c>
+      <c r="D73">
+        <v>88.51</v>
+      </c>
+      <c r="E73">
+        <v>75</v>
+      </c>
       <c r="L73">
         <v>36</v>
       </c>
@@ -28384,6 +30547,12 @@
       <c r="B74">
         <v>30.75</v>
       </c>
+      <c r="D74">
+        <v>89.01</v>
+      </c>
+      <c r="E74">
+        <v>75.5</v>
+      </c>
       <c r="L74">
         <v>36.5</v>
       </c>
@@ -28398,6 +30567,12 @@
       <c r="B75">
         <v>31</v>
       </c>
+      <c r="D75">
+        <v>89.51</v>
+      </c>
+      <c r="E75">
+        <v>76</v>
+      </c>
       <c r="L75">
         <v>37</v>
       </c>
@@ -28412,6 +30587,12 @@
       <c r="B76">
         <v>31.25</v>
       </c>
+      <c r="D76">
+        <v>90.01</v>
+      </c>
+      <c r="E76">
+        <v>76.75</v>
+      </c>
       <c r="L76">
         <v>37.5</v>
       </c>
@@ -28426,6 +30607,12 @@
       <c r="B77">
         <v>31.75</v>
       </c>
+      <c r="D77">
+        <v>90.51</v>
+      </c>
+      <c r="E77">
+        <v>77.25</v>
+      </c>
       <c r="L77">
         <v>38</v>
       </c>
@@ -28440,6 +30627,12 @@
       <c r="B78">
         <v>31.75</v>
       </c>
+      <c r="D78">
+        <v>91.01</v>
+      </c>
+      <c r="E78">
+        <v>77.75</v>
+      </c>
       <c r="L78">
         <v>38.5</v>
       </c>
@@ -28454,6 +30647,12 @@
       <c r="B79">
         <v>32</v>
       </c>
+      <c r="D79">
+        <v>91.51</v>
+      </c>
+      <c r="E79">
+        <v>78.25</v>
+      </c>
       <c r="L79">
         <v>39</v>
       </c>
@@ -28468,6 +30667,12 @@
       <c r="B80">
         <v>32.5</v>
       </c>
+      <c r="D80">
+        <v>92.01</v>
+      </c>
+      <c r="E80">
+        <v>78.75</v>
+      </c>
       <c r="L80">
         <v>39.5</v>
       </c>
@@ -28482,6 +30687,12 @@
       <c r="B81">
         <v>32.75</v>
       </c>
+      <c r="D81">
+        <v>92.51</v>
+      </c>
+      <c r="E81">
+        <v>79.25</v>
+      </c>
       <c r="L81">
         <v>40</v>
       </c>
@@ -28496,6 +30707,12 @@
       <c r="B82">
         <v>33</v>
       </c>
+      <c r="D82">
+        <v>93.01</v>
+      </c>
+      <c r="E82">
+        <v>79.75</v>
+      </c>
       <c r="L82">
         <v>40.5</v>
       </c>
@@ -28510,6 +30727,12 @@
       <c r="B83">
         <v>33.5</v>
       </c>
+      <c r="D83">
+        <v>93.51</v>
+      </c>
+      <c r="E83">
+        <v>80.25</v>
+      </c>
       <c r="L83">
         <v>41</v>
       </c>
@@ -28524,6 +30747,12 @@
       <c r="B84">
         <v>33.75</v>
       </c>
+      <c r="D84">
+        <v>94.01</v>
+      </c>
+      <c r="E84">
+        <v>80.75</v>
+      </c>
       <c r="L84">
         <v>41.5</v>
       </c>
@@ -28538,6 +30767,12 @@
       <c r="B85">
         <v>34</v>
       </c>
+      <c r="D85">
+        <v>94.51</v>
+      </c>
+      <c r="E85">
+        <v>81.25</v>
+      </c>
       <c r="L85">
         <v>42</v>
       </c>
@@ -28552,6 +30787,12 @@
       <c r="B86">
         <v>34.25</v>
       </c>
+      <c r="D86">
+        <v>95.01</v>
+      </c>
+      <c r="E86">
+        <v>81.75</v>
+      </c>
       <c r="L86">
         <v>42.5</v>
       </c>
@@ -28566,6 +30807,12 @@
       <c r="B87">
         <v>34.5</v>
       </c>
+      <c r="D87">
+        <v>95.51</v>
+      </c>
+      <c r="E87">
+        <v>82.25</v>
+      </c>
       <c r="L87">
         <v>43</v>
       </c>
@@ -28580,6 +30827,12 @@
       <c r="B88">
         <v>35</v>
       </c>
+      <c r="D88">
+        <v>96.01</v>
+      </c>
+      <c r="E88">
+        <v>82.75</v>
+      </c>
       <c r="L88">
         <v>43.5</v>
       </c>
@@ -28594,6 +30847,12 @@
       <c r="B89">
         <v>35.25</v>
       </c>
+      <c r="D89">
+        <v>96.51</v>
+      </c>
+      <c r="E89">
+        <v>83.25</v>
+      </c>
       <c r="L89">
         <v>44</v>
       </c>
@@ -28608,6 +30867,12 @@
       <c r="B90">
         <v>35.75</v>
       </c>
+      <c r="D90">
+        <v>97.01</v>
+      </c>
+      <c r="E90">
+        <v>83.75</v>
+      </c>
       <c r="L90">
         <v>44.5</v>
       </c>
@@ -28622,6 +30887,12 @@
       <c r="B91">
         <v>36</v>
       </c>
+      <c r="D91">
+        <v>97.51</v>
+      </c>
+      <c r="E91">
+        <v>84.5</v>
+      </c>
       <c r="L91">
         <v>45</v>
       </c>
@@ -28636,6 +30907,12 @@
       <c r="B92">
         <v>36.25</v>
       </c>
+      <c r="D92">
+        <v>98.01</v>
+      </c>
+      <c r="E92">
+        <v>85</v>
+      </c>
       <c r="L92">
         <v>45.5</v>
       </c>
@@ -28650,6 +30927,12 @@
       <c r="B93">
         <v>36.75</v>
       </c>
+      <c r="D93">
+        <v>98.51</v>
+      </c>
+      <c r="E93">
+        <v>85.5</v>
+      </c>
       <c r="L93">
         <v>46</v>
       </c>
@@ -28664,6 +30947,12 @@
       <c r="B94">
         <v>37</v>
       </c>
+      <c r="D94">
+        <v>99.01</v>
+      </c>
+      <c r="E94">
+        <v>86</v>
+      </c>
       <c r="L94">
         <v>46.5</v>
       </c>
@@ -28678,6 +30967,12 @@
       <c r="B95">
         <v>37.5</v>
       </c>
+      <c r="D95">
+        <v>99.51</v>
+      </c>
+      <c r="E95">
+        <v>86.25</v>
+      </c>
       <c r="L95">
         <v>47</v>
       </c>
@@ -28692,6 +30987,12 @@
       <c r="B96">
         <v>37.75</v>
       </c>
+      <c r="D96">
+        <v>100.01</v>
+      </c>
+      <c r="E96">
+        <v>87</v>
+      </c>
       <c r="L96">
         <v>47.5</v>
       </c>
@@ -28706,6 +31007,12 @@
       <c r="B97">
         <v>38.25</v>
       </c>
+      <c r="D97">
+        <v>100.51</v>
+      </c>
+      <c r="E97">
+        <v>87.25</v>
+      </c>
       <c r="L97">
         <v>48</v>
       </c>
@@ -28720,6 +31027,12 @@
       <c r="B98">
         <v>38.5</v>
       </c>
+      <c r="D98">
+        <v>101.01</v>
+      </c>
+      <c r="E98">
+        <v>87.75</v>
+      </c>
       <c r="L98">
         <v>48.5</v>
       </c>
@@ -28734,6 +31047,12 @@
       <c r="B99">
         <v>39</v>
       </c>
+      <c r="D99">
+        <v>101.51</v>
+      </c>
+      <c r="E99">
+        <v>88.25</v>
+      </c>
       <c r="L99">
         <v>49</v>
       </c>
@@ -28748,6 +31067,12 @@
       <c r="B100">
         <v>39.25</v>
       </c>
+      <c r="D100">
+        <v>102.01</v>
+      </c>
+      <c r="E100">
+        <v>88.75</v>
+      </c>
       <c r="L100">
         <v>49.5</v>
       </c>
@@ -28762,6 +31087,12 @@
       <c r="B101">
         <v>39.75</v>
       </c>
+      <c r="D101">
+        <v>102.51</v>
+      </c>
+      <c r="E101">
+        <v>89.25</v>
+      </c>
       <c r="L101">
         <v>50</v>
       </c>
@@ -28776,6 +31107,12 @@
       <c r="B102">
         <v>40</v>
       </c>
+      <c r="D102">
+        <v>103.01</v>
+      </c>
+      <c r="E102">
+        <v>89.5</v>
+      </c>
       <c r="L102">
         <v>50.5</v>
       </c>
@@ -28790,6 +31127,12 @@
       <c r="B103">
         <v>40.5</v>
       </c>
+      <c r="D103">
+        <v>103.51</v>
+      </c>
+      <c r="E103">
+        <v>90</v>
+      </c>
       <c r="L103">
         <v>51</v>
       </c>
@@ -28804,6 +31147,12 @@
       <c r="B104">
         <v>40.5</v>
       </c>
+      <c r="D104">
+        <v>104.01</v>
+      </c>
+      <c r="E104">
+        <v>90.75</v>
+      </c>
       <c r="L104">
         <v>51.5</v>
       </c>
@@ -28818,6 +31167,12 @@
       <c r="B105">
         <v>41</v>
       </c>
+      <c r="D105">
+        <v>104.51</v>
+      </c>
+      <c r="E105">
+        <v>91.25</v>
+      </c>
       <c r="L105">
         <v>52</v>
       </c>
@@ -28832,6 +31187,12 @@
       <c r="B106">
         <v>41.5</v>
       </c>
+      <c r="D106">
+        <v>105.01</v>
+      </c>
+      <c r="E106">
+        <v>91.75</v>
+      </c>
       <c r="L106">
         <v>52.5</v>
       </c>
@@ -28846,6 +31207,12 @@
       <c r="B107">
         <v>42</v>
       </c>
+      <c r="D107">
+        <v>105.51</v>
+      </c>
+      <c r="E107">
+        <v>92</v>
+      </c>
       <c r="L107">
         <v>53</v>
       </c>
@@ -28860,6 +31227,12 @@
       <c r="B108">
         <v>42.25</v>
       </c>
+      <c r="D108">
+        <v>106.01</v>
+      </c>
+      <c r="E108">
+        <v>92.5</v>
+      </c>
       <c r="L108">
         <v>53.5</v>
       </c>
@@ -28874,6 +31247,12 @@
       <c r="B109">
         <v>42.75</v>
       </c>
+      <c r="D109">
+        <v>106.51</v>
+      </c>
+      <c r="E109">
+        <v>93</v>
+      </c>
       <c r="L109">
         <v>54</v>
       </c>
@@ -28888,6 +31267,12 @@
       <c r="B110">
         <v>43</v>
       </c>
+      <c r="D110">
+        <v>107.01</v>
+      </c>
+      <c r="E110">
+        <v>93.5</v>
+      </c>
       <c r="L110">
         <v>54.5</v>
       </c>
@@ -28902,6 +31287,12 @@
       <c r="B111">
         <v>43.5</v>
       </c>
+      <c r="D111">
+        <v>107.51</v>
+      </c>
+      <c r="E111">
+        <v>93.75</v>
+      </c>
       <c r="L111">
         <v>55</v>
       </c>
@@ -28916,6 +31307,12 @@
       <c r="B112">
         <v>44</v>
       </c>
+      <c r="D112">
+        <v>108.01</v>
+      </c>
+      <c r="E112">
+        <v>94.5</v>
+      </c>
       <c r="L112">
         <v>55.5</v>
       </c>
@@ -28930,6 +31327,12 @@
       <c r="B113">
         <v>44.5</v>
       </c>
+      <c r="D113">
+        <v>108.51</v>
+      </c>
+      <c r="E113">
+        <v>95</v>
+      </c>
       <c r="L113">
         <v>56.01</v>
       </c>
@@ -28944,6 +31347,12 @@
       <c r="B114">
         <v>44.75</v>
       </c>
+      <c r="D114">
+        <v>109.01</v>
+      </c>
+      <c r="E114">
+        <v>95.5</v>
+      </c>
       <c r="L114">
         <v>56.51</v>
       </c>
@@ -28958,6 +31367,12 @@
       <c r="B115">
         <v>45.25</v>
       </c>
+      <c r="D115">
+        <v>109.51</v>
+      </c>
+      <c r="E115">
+        <v>95.75</v>
+      </c>
       <c r="L115">
         <v>57.01</v>
       </c>
@@ -28972,6 +31387,12 @@
       <c r="B116">
         <v>45.75</v>
       </c>
+      <c r="D116">
+        <v>110.01</v>
+      </c>
+      <c r="E116">
+        <v>96.25</v>
+      </c>
       <c r="L116">
         <v>57.51</v>
       </c>
@@ -28986,6 +31407,12 @@
       <c r="B117">
         <v>46</v>
       </c>
+      <c r="D117">
+        <v>110.51</v>
+      </c>
+      <c r="E117">
+        <v>96.75</v>
+      </c>
       <c r="L117">
         <v>58.01</v>
       </c>
@@ -29000,6 +31427,12 @@
       <c r="B118">
         <v>46.5</v>
       </c>
+      <c r="D118">
+        <v>111.01</v>
+      </c>
+      <c r="E118">
+        <v>97</v>
+      </c>
       <c r="L118">
         <v>58.51</v>
       </c>
@@ -29014,6 +31447,12 @@
       <c r="B119">
         <v>47</v>
       </c>
+      <c r="D119">
+        <v>111.51</v>
+      </c>
+      <c r="E119">
+        <v>97.75</v>
+      </c>
       <c r="L119">
         <v>59.01</v>
       </c>
@@ -29028,6 +31467,12 @@
       <c r="B120">
         <v>47.25</v>
       </c>
+      <c r="D120">
+        <v>112.01</v>
+      </c>
+      <c r="E120">
+        <v>98</v>
+      </c>
       <c r="L120">
         <v>59.51</v>
       </c>
@@ -29042,6 +31487,12 @@
       <c r="B121">
         <v>47.75</v>
       </c>
+      <c r="D121">
+        <v>112.51</v>
+      </c>
+      <c r="E121">
+        <v>98.5</v>
+      </c>
       <c r="L121">
         <v>60.01</v>
       </c>
@@ -29056,6 +31507,12 @@
       <c r="B122">
         <v>48.25</v>
       </c>
+      <c r="D122">
+        <v>113.01</v>
+      </c>
+      <c r="E122">
+        <v>99.25</v>
+      </c>
       <c r="L122">
         <v>60.51</v>
       </c>
@@ -29070,6 +31527,12 @@
       <c r="B123">
         <v>48.75</v>
       </c>
+      <c r="D123">
+        <v>113.51</v>
+      </c>
+      <c r="E123">
+        <v>99.75</v>
+      </c>
       <c r="L123">
         <v>61.01</v>
       </c>
@@ -29084,6 +31547,12 @@
       <c r="B124">
         <v>49.25</v>
       </c>
+      <c r="D124">
+        <v>114.01</v>
+      </c>
+      <c r="E124">
+        <v>100</v>
+      </c>
       <c r="L124">
         <v>61.51</v>
       </c>
@@ -29098,6 +31567,12 @@
       <c r="B125">
         <v>49.5</v>
       </c>
+      <c r="D125">
+        <v>114.51</v>
+      </c>
+      <c r="E125">
+        <v>100.75</v>
+      </c>
       <c r="L125">
         <v>62.01</v>
       </c>
@@ -29112,6 +31587,12 @@
       <c r="B126">
         <v>50</v>
       </c>
+      <c r="D126">
+        <v>115.01</v>
+      </c>
+      <c r="E126">
+        <v>101.25</v>
+      </c>
       <c r="L126">
         <v>62.51</v>
       </c>
@@ -29126,6 +31607,12 @@
       <c r="B127">
         <v>50.5</v>
       </c>
+      <c r="D127">
+        <v>115.51</v>
+      </c>
+      <c r="E127">
+        <v>101.5</v>
+      </c>
       <c r="L127">
         <v>63.01</v>
       </c>
@@ -29140,6 +31627,12 @@
       <c r="B128">
         <v>51</v>
       </c>
+      <c r="D128">
+        <v>116.01</v>
+      </c>
+      <c r="E128">
+        <v>102.25</v>
+      </c>
       <c r="L128">
         <v>63.51</v>
       </c>
@@ -29154,6 +31647,12 @@
       <c r="B129">
         <v>51.25</v>
       </c>
+      <c r="D129">
+        <v>116.51</v>
+      </c>
+      <c r="E129">
+        <v>102.5</v>
+      </c>
       <c r="L129">
         <v>64</v>
       </c>
@@ -29168,6 +31667,12 @@
       <c r="B130">
         <v>52</v>
       </c>
+      <c r="D130">
+        <v>117.01</v>
+      </c>
+      <c r="E130">
+        <v>103</v>
+      </c>
       <c r="L130">
         <v>64.5</v>
       </c>
@@ -29182,6 +31687,12 @@
       <c r="B131">
         <v>52.25</v>
       </c>
+      <c r="D131">
+        <v>117.51</v>
+      </c>
+      <c r="E131">
+        <v>103.5</v>
+      </c>
       <c r="L131">
         <v>65</v>
       </c>
@@ -29196,6 +31707,12 @@
       <c r="B132">
         <v>52.75</v>
       </c>
+      <c r="D132">
+        <v>118.01</v>
+      </c>
+      <c r="E132">
+        <v>104</v>
+      </c>
       <c r="L132">
         <v>65.5</v>
       </c>
@@ -29210,6 +31727,12 @@
       <c r="B133">
         <v>53.25</v>
       </c>
+      <c r="D133">
+        <v>118.51</v>
+      </c>
+      <c r="E133">
+        <v>104.5</v>
+      </c>
       <c r="L133">
         <v>66.010000000000005</v>
       </c>
@@ -29224,6 +31747,12 @@
       <c r="B134">
         <v>53.75</v>
       </c>
+      <c r="D134">
+        <v>119.01</v>
+      </c>
+      <c r="E134">
+        <v>105</v>
+      </c>
       <c r="L134">
         <v>66.510000000000005</v>
       </c>
@@ -29238,6 +31767,12 @@
       <c r="B135">
         <v>54.25</v>
       </c>
+      <c r="D135">
+        <v>119.51</v>
+      </c>
+      <c r="E135">
+        <v>105.5</v>
+      </c>
       <c r="L135">
         <v>67.010000000000005</v>
       </c>
@@ -29252,6 +31787,12 @@
       <c r="B136">
         <v>54.75</v>
       </c>
+      <c r="D136">
+        <v>120.01</v>
+      </c>
+      <c r="E136">
+        <v>105.75</v>
+      </c>
       <c r="L136">
         <v>67.510000000000005</v>
       </c>
@@ -29266,6 +31807,12 @@
       <c r="B137">
         <v>55.25</v>
       </c>
+      <c r="D137">
+        <v>120.51</v>
+      </c>
+      <c r="E137">
+        <v>106.25</v>
+      </c>
       <c r="L137">
         <v>68.010000000000005</v>
       </c>
@@ -29280,6 +31827,12 @@
       <c r="B138">
         <v>55.75</v>
       </c>
+      <c r="D138">
+        <v>121.01</v>
+      </c>
+      <c r="E138">
+        <v>106.75</v>
+      </c>
       <c r="L138">
         <v>68.510000000000005</v>
       </c>
@@ -29294,6 +31847,12 @@
       <c r="B139">
         <v>56</v>
       </c>
+      <c r="D139">
+        <v>121.51</v>
+      </c>
+      <c r="E139">
+        <v>107.5</v>
+      </c>
       <c r="L139">
         <v>69.010000000000005</v>
       </c>
@@ -29308,6 +31867,12 @@
       <c r="B140">
         <v>56.5</v>
       </c>
+      <c r="D140">
+        <v>122.01</v>
+      </c>
+      <c r="E140">
+        <v>107.75</v>
+      </c>
       <c r="L140">
         <v>69.510000000000005</v>
       </c>
@@ -29322,6 +31887,12 @@
       <c r="B141">
         <v>57</v>
       </c>
+      <c r="D141">
+        <v>122.51</v>
+      </c>
+      <c r="E141">
+        <v>108.25</v>
+      </c>
       <c r="L141">
         <v>70.010000000000005</v>
       </c>
@@ -29336,6 +31907,12 @@
       <c r="B142">
         <v>57.5</v>
       </c>
+      <c r="D142">
+        <v>123.01</v>
+      </c>
+      <c r="E142">
+        <v>108.5</v>
+      </c>
       <c r="L142">
         <v>70.510000000000005</v>
       </c>
@@ -29350,6 +31927,12 @@
       <c r="B143">
         <v>58</v>
       </c>
+      <c r="D143">
+        <v>123.51</v>
+      </c>
+      <c r="E143">
+        <v>109</v>
+      </c>
       <c r="L143">
         <v>71.010000000000005</v>
       </c>
@@ -29364,6 +31947,12 @@
       <c r="B144">
         <v>58.75</v>
       </c>
+      <c r="D144">
+        <v>124.01</v>
+      </c>
+      <c r="E144">
+        <v>109.25</v>
+      </c>
       <c r="L144">
         <v>71.510000000000005</v>
       </c>
@@ -29378,6 +31967,12 @@
       <c r="B145">
         <v>59</v>
       </c>
+      <c r="D145">
+        <v>124.51</v>
+      </c>
+      <c r="E145">
+        <v>109.75</v>
+      </c>
       <c r="L145">
         <v>72.010000000000005</v>
       </c>
@@ -29392,6 +31987,12 @@
       <c r="B146">
         <v>59.5</v>
       </c>
+      <c r="D146">
+        <v>125.01</v>
+      </c>
+      <c r="E146">
+        <v>110.25</v>
+      </c>
       <c r="L146">
         <v>72.510000000000005</v>
       </c>
@@ -29406,6 +32007,12 @@
       <c r="B147">
         <v>60</v>
       </c>
+      <c r="D147">
+        <v>125.51</v>
+      </c>
+      <c r="E147">
+        <v>110.75</v>
+      </c>
       <c r="L147">
         <v>73.010000000000005</v>
       </c>
@@ -29420,6 +32027,12 @@
       <c r="B148">
         <v>60.5</v>
       </c>
+      <c r="D148">
+        <v>126.01</v>
+      </c>
+      <c r="E148">
+        <v>111.25</v>
+      </c>
       <c r="L148">
         <v>73.510000000000005</v>
       </c>
@@ -29434,6 +32047,12 @@
       <c r="B149">
         <v>61</v>
       </c>
+      <c r="D149">
+        <v>126.51</v>
+      </c>
+      <c r="E149">
+        <v>111.75</v>
+      </c>
       <c r="L149">
         <v>74.010000000000005</v>
       </c>
@@ -29448,6 +32067,12 @@
       <c r="B150">
         <v>61.75</v>
       </c>
+      <c r="D150">
+        <v>127.01</v>
+      </c>
+      <c r="E150">
+        <v>112</v>
+      </c>
       <c r="L150">
         <v>74.510000000000005</v>
       </c>
@@ -29462,6 +32087,12 @@
       <c r="B151">
         <v>62</v>
       </c>
+      <c r="D151">
+        <v>127.51</v>
+      </c>
+      <c r="E151">
+        <v>112.5</v>
+      </c>
       <c r="L151">
         <v>75.010000000000005</v>
       </c>
@@ -29476,6 +32107,12 @@
       <c r="B152">
         <v>62.5</v>
       </c>
+      <c r="D152">
+        <v>128.01</v>
+      </c>
+      <c r="E152">
+        <v>113</v>
+      </c>
       <c r="L152">
         <v>75.510000000000005</v>
       </c>
@@ -29490,6 +32127,12 @@
       <c r="B153">
         <v>63</v>
       </c>
+      <c r="D153">
+        <v>128.51</v>
+      </c>
+      <c r="E153">
+        <v>113.5</v>
+      </c>
       <c r="L153">
         <v>76.010000000000005</v>
       </c>
@@ -29504,6 +32147,12 @@
       <c r="B154">
         <v>63.5</v>
       </c>
+      <c r="D154">
+        <v>129.01</v>
+      </c>
+      <c r="E154">
+        <v>114</v>
+      </c>
       <c r="L154">
         <v>76.510000000000005</v>
       </c>
@@ -29518,6 +32167,12 @@
       <c r="B155">
         <v>64</v>
       </c>
+      <c r="D155">
+        <v>129.51</v>
+      </c>
+      <c r="E155">
+        <v>114.5</v>
+      </c>
       <c r="L155">
         <v>77.010000000000005</v>
       </c>
@@ -29532,6 +32187,12 @@
       <c r="B156">
         <v>64.5</v>
       </c>
+      <c r="D156">
+        <v>130.01</v>
+      </c>
+      <c r="E156">
+        <v>114.75</v>
+      </c>
       <c r="L156">
         <v>77.510000000000005</v>
       </c>
@@ -29546,6 +32207,12 @@
       <c r="B157">
         <v>65</v>
       </c>
+      <c r="D157">
+        <v>130.51</v>
+      </c>
+      <c r="E157">
+        <v>115</v>
+      </c>
       <c r="L157">
         <v>78.010000000000005</v>
       </c>
@@ -29560,6 +32227,12 @@
       <c r="B158">
         <v>65.25</v>
       </c>
+      <c r="D158">
+        <v>131.01</v>
+      </c>
+      <c r="E158">
+        <v>115.5</v>
+      </c>
       <c r="L158">
         <v>78.510000000000005</v>
       </c>
@@ -29574,6 +32247,12 @@
       <c r="B159">
         <v>66</v>
       </c>
+      <c r="D159">
+        <v>131.51</v>
+      </c>
+      <c r="E159">
+        <v>116</v>
+      </c>
       <c r="L159">
         <v>79.010000000000005</v>
       </c>
@@ -29588,6 +32267,12 @@
       <c r="B160">
         <v>66.25</v>
       </c>
+      <c r="D160">
+        <v>132.01</v>
+      </c>
+      <c r="E160">
+        <v>116.5</v>
+      </c>
       <c r="L160">
         <v>79.510000000000005</v>
       </c>
@@ -29602,6 +32287,12 @@
       <c r="B161">
         <v>66.75</v>
       </c>
+      <c r="D161">
+        <v>132.51</v>
+      </c>
+      <c r="E161">
+        <v>117</v>
+      </c>
       <c r="L161">
         <v>80.010000000000005</v>
       </c>
@@ -29616,6 +32307,12 @@
       <c r="B162">
         <v>67.25</v>
       </c>
+      <c r="D162">
+        <v>133.01</v>
+      </c>
+      <c r="E162">
+        <v>117.25</v>
+      </c>
       <c r="L162">
         <v>80.510000000000005</v>
       </c>
@@ -29630,6 +32327,12 @@
       <c r="B163">
         <v>67.75</v>
       </c>
+      <c r="D163">
+        <v>133.51</v>
+      </c>
+      <c r="E163">
+        <v>117.75</v>
+      </c>
       <c r="L163">
         <v>81.010000000000005</v>
       </c>
@@ -29644,6 +32347,12 @@
       <c r="B164">
         <v>68.25</v>
       </c>
+      <c r="D164">
+        <v>134.01</v>
+      </c>
+      <c r="E164">
+        <v>118</v>
+      </c>
       <c r="L164">
         <v>81.510000000000005</v>
       </c>
@@ -29658,6 +32367,12 @@
       <c r="B165">
         <v>68.75</v>
       </c>
+      <c r="D165">
+        <v>134.51</v>
+      </c>
+      <c r="E165">
+        <v>118.75</v>
+      </c>
       <c r="L165">
         <v>82.01</v>
       </c>
@@ -29672,6 +32387,12 @@
       <c r="B166">
         <v>69.25</v>
       </c>
+      <c r="D166">
+        <v>135.01</v>
+      </c>
+      <c r="E166">
+        <v>119.25</v>
+      </c>
       <c r="L166">
         <v>82.51</v>
       </c>
@@ -29686,6 +32407,12 @@
       <c r="B167">
         <v>69.75</v>
       </c>
+      <c r="D167">
+        <v>135.51</v>
+      </c>
+      <c r="E167">
+        <v>119.75</v>
+      </c>
       <c r="L167">
         <v>83.01</v>
       </c>
@@ -29700,6 +32427,12 @@
       <c r="B168">
         <v>70.25</v>
       </c>
+      <c r="D168">
+        <v>136.01</v>
+      </c>
+      <c r="E168">
+        <v>120</v>
+      </c>
       <c r="L168">
         <v>83.51</v>
       </c>
@@ -29714,6 +32447,12 @@
       <c r="B169">
         <v>70.75</v>
       </c>
+      <c r="D169">
+        <v>136.51</v>
+      </c>
+      <c r="E169">
+        <v>120.25</v>
+      </c>
       <c r="L169">
         <v>84.01</v>
       </c>
@@ -29728,6 +32467,12 @@
       <c r="B170">
         <v>71.25</v>
       </c>
+      <c r="D170">
+        <v>137.01</v>
+      </c>
+      <c r="E170">
+        <v>120.75</v>
+      </c>
       <c r="L170">
         <v>84.51</v>
       </c>
@@ -29742,6 +32487,12 @@
       <c r="B171">
         <v>71.75</v>
       </c>
+      <c r="D171">
+        <v>137.51</v>
+      </c>
+      <c r="E171">
+        <v>121</v>
+      </c>
       <c r="L171">
         <v>85.01</v>
       </c>
@@ -29756,6 +32507,12 @@
       <c r="B172">
         <v>72.25</v>
       </c>
+      <c r="D172">
+        <v>138.01</v>
+      </c>
+      <c r="E172">
+        <v>121.5</v>
+      </c>
       <c r="L172">
         <v>85.51</v>
       </c>
@@ -29770,6 +32527,12 @@
       <c r="B173">
         <v>72.75</v>
       </c>
+      <c r="D173">
+        <v>138.51</v>
+      </c>
+      <c r="E173">
+        <v>121.75</v>
+      </c>
       <c r="L173">
         <v>86.01</v>
       </c>
@@ -29784,6 +32547,12 @@
       <c r="B174">
         <v>73.25</v>
       </c>
+      <c r="D174">
+        <v>139.01</v>
+      </c>
+      <c r="E174">
+        <v>122.25</v>
+      </c>
       <c r="L174">
         <v>86.51</v>
       </c>
@@ -29798,6 +32567,12 @@
       <c r="B175">
         <v>73.75</v>
       </c>
+      <c r="D175">
+        <v>139.51</v>
+      </c>
+      <c r="E175">
+        <v>122.75</v>
+      </c>
       <c r="L175">
         <v>87.01</v>
       </c>
@@ -29812,6 +32587,12 @@
       <c r="B176">
         <v>74.25</v>
       </c>
+      <c r="D176">
+        <v>140.01</v>
+      </c>
+      <c r="E176">
+        <v>123.25</v>
+      </c>
       <c r="L176">
         <v>87.51</v>
       </c>
@@ -29826,6 +32607,12 @@
       <c r="B177">
         <v>74.75</v>
       </c>
+      <c r="D177">
+        <v>140.51</v>
+      </c>
+      <c r="E177">
+        <v>123.5</v>
+      </c>
       <c r="L177">
         <v>88.01</v>
       </c>
@@ -29840,6 +32627,12 @@
       <c r="B178">
         <v>75</v>
       </c>
+      <c r="D178">
+        <v>141.01</v>
+      </c>
+      <c r="E178">
+        <v>124</v>
+      </c>
       <c r="L178">
         <v>88.51</v>
       </c>
@@ -29853,6 +32646,12 @@
       </c>
       <c r="B179">
         <v>75.5</v>
+      </c>
+      <c r="D179">
+        <v>141.51</v>
+      </c>
+      <c r="E179">
+        <v>124.25</v>
       </c>
       <c r="L179">
         <v>89.01</v>
